--- a/biology/Zoologie/Conus_maldivus/Conus_maldivus.xlsx
+++ b/biology/Zoologie/Conus_maldivus/Conus_maldivus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus maldivus est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille de la coquille varie entre 18 mm et 83 mm.
-La coquille est entourée de lignes tournantes distantes de petites taches. Elle est parfois irrégulièrement nuancée de blanc, ne formant pas de bandes. À d'autres moments, elle est irrégulièrement bandée[1]. 
+La coquille est entourée de lignes tournantes distantes de petites taches. Elle est parfois irrégulièrement nuancée de blanc, ne formant pas de bandes. À d'autres moments, elle est irrégulièrement bandée. 
 </t>
         </is>
       </c>
@@ -544,11 +558,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce marine est présente dans la mer Rouge et dans l'ouest de l'océan Indien au large du bassin des Mascareignes. Mascareignes, des Maldives et du Sri Lanka.
-Niveau de risque d’extinction de l’espèce
-Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce est largement distribuée dans l'ouest et le nord-ouest de l'océan Indien, allant du Mozambique au centre du Natal et jusqu'à la mer Rouge, y compris Madagascar et le sud de l'Inde. Sa coquille est abondante et peu coûteuse sur le marché des collectionneurs, ce qui indique une abondance raisonnable à l'état sauvage. Il est peu probable qu'elle soit affectée par des menaces majeures et est donc évaluée comme étant de préoccupation mineure[2].
 </t>
         </is>
       </c>
@@ -574,15 +588,92 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Niveau de risque d’extinction de l’espèce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce est largement distribuée dans l'ouest et le nord-ouest de l'océan Indien, allant du Mozambique au centre du Natal et jusqu'à la mer Rouge, y compris Madagascar et le sud de l'Inde. Sa coquille est abondante et peu coûteuse sur le marché des collectionneurs, ce qui indique une abondance raisonnable à l'état sauvage. Il est peu probable qu'elle soit affectée par des menaces majeures et est donc évaluée comme étant de préoccupation mineure.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_maldivus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_maldivus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Publication originale
-L'espèce Conus maldivus a été décrite pour la première fois en 1792 par le conchyliologiste danois Christian Hee Hwass dans « Encyclopédie méthodique ou par ordre de matières Histoire naturelle des vers - volume 1 » écrite par le naturaliste français Jean-Guillaume Bruguière (1750-1798)[3],[4].
-Synonymes
-Conus (Strategoconus) maldivus Hwass, 1792 · appellation alternative
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus maldivus a été décrite pour la première fois en 1792 par le conchyliologiste danois Christian Hee Hwass dans « Encyclopédie méthodique ou par ordre de matières Histoire naturelle des vers - volume 1 » écrite par le naturaliste français Jean-Guillaume Bruguière (1750-1798),.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_maldivus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_maldivus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Conus (Strategoconus) maldivus Hwass, 1792 · appellation alternative
 Conus dux (Röding, 1798) · non accepté
 Conus generalis maldivus Hwass, 1792 · non accepté
 Conus generalis monteiroi Barros e Cunha, 1933 · non accepté
